--- a/data/stat probs/josh christopher stat probs - condition.xlsx
+++ b/data/stat probs/josh christopher stat probs - condition.xlsx
@@ -19,18 +19,18 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0 before 2023 full" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 full" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 full" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="den 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="den 2023 full" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 full" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 full" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 full" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="den 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="den 2023 full" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 full" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="24" state="visible" r:id="rId24"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lal 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lal 2023 full" sheetId="26" state="visible" r:id="rId26"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
@@ -585,28 +585,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -1323,22 +1323,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1837,28 +1837,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -2415,28 +2415,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -2925,1034 +2925,6 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>62</v>
-      </c>
-      <c r="F3" t="n">
-        <v>38</v>
-      </c>
-      <c r="G3" t="n">
-        <v>50</v>
-      </c>
-      <c r="H3" t="n">
-        <v>50</v>
-      </c>
-      <c r="I3" t="n">
-        <v>38</v>
-      </c>
-      <c r="J3" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>38</v>
-      </c>
-      <c r="F4" t="n">
-        <v>62</v>
-      </c>
-      <c r="G4" t="n">
-        <v>38</v>
-      </c>
-      <c r="H4" t="n">
-        <v>62</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>88</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12</v>
-      </c>
-      <c r="E5" t="n">
-        <v>12</v>
-      </c>
-      <c r="F5" t="n">
-        <v>88</v>
-      </c>
-      <c r="G5" t="n">
-        <v>12</v>
-      </c>
-      <c r="H5" t="n">
-        <v>88</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D6" t="n">
-        <v>25</v>
-      </c>
-      <c r="E6" t="n">
-        <v>12</v>
-      </c>
-      <c r="F6" t="n">
-        <v>88</v>
-      </c>
-      <c r="G6" t="n">
-        <v>12</v>
-      </c>
-      <c r="H6" t="n">
-        <v>88</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>62</v>
-      </c>
-      <c r="D7" t="n">
-        <v>38</v>
-      </c>
-      <c r="E7" t="n">
-        <v>12</v>
-      </c>
-      <c r="F7" t="n">
-        <v>88</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>62</v>
-      </c>
-      <c r="D8" t="n">
-        <v>38</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>62</v>
-      </c>
-      <c r="D9" t="n">
-        <v>38</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>38</v>
-      </c>
-      <c r="D10" t="n">
-        <v>62</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" t="n">
-        <v>75</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>12</v>
-      </c>
-      <c r="D12" t="n">
-        <v>88</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>12</v>
-      </c>
-      <c r="D13" t="n">
-        <v>88</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>12</v>
-      </c>
-      <c r="D14" t="n">
-        <v>88</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>12</v>
-      </c>
-      <c r="D15" t="n">
-        <v>88</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>62</v>
-      </c>
-      <c r="F3" t="n">
-        <v>38</v>
-      </c>
-      <c r="G3" t="n">
-        <v>50</v>
-      </c>
-      <c r="H3" t="n">
-        <v>50</v>
-      </c>
-      <c r="I3" t="n">
-        <v>38</v>
-      </c>
-      <c r="J3" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>38</v>
-      </c>
-      <c r="F4" t="n">
-        <v>62</v>
-      </c>
-      <c r="G4" t="n">
-        <v>38</v>
-      </c>
-      <c r="H4" t="n">
-        <v>62</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>88</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12</v>
-      </c>
-      <c r="E5" t="n">
-        <v>12</v>
-      </c>
-      <c r="F5" t="n">
-        <v>88</v>
-      </c>
-      <c r="G5" t="n">
-        <v>12</v>
-      </c>
-      <c r="H5" t="n">
-        <v>88</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D6" t="n">
-        <v>25</v>
-      </c>
-      <c r="E6" t="n">
-        <v>12</v>
-      </c>
-      <c r="F6" t="n">
-        <v>88</v>
-      </c>
-      <c r="G6" t="n">
-        <v>12</v>
-      </c>
-      <c r="H6" t="n">
-        <v>88</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>62</v>
-      </c>
-      <c r="D7" t="n">
-        <v>38</v>
-      </c>
-      <c r="E7" t="n">
-        <v>12</v>
-      </c>
-      <c r="F7" t="n">
-        <v>88</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>62</v>
-      </c>
-      <c r="D8" t="n">
-        <v>38</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>62</v>
-      </c>
-      <c r="D9" t="n">
-        <v>38</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>38</v>
-      </c>
-      <c r="D10" t="n">
-        <v>62</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" t="n">
-        <v>75</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>12</v>
-      </c>
-      <c r="D12" t="n">
-        <v>88</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>12</v>
-      </c>
-      <c r="D13" t="n">
-        <v>88</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>12</v>
-      </c>
-      <c r="D14" t="n">
-        <v>88</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>12</v>
-      </c>
-      <c r="D15" t="n">
-        <v>88</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4021,22 +2993,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -4306,7 +3278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4375,22 +3347,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -4660,7 +3632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4729,28 +3701,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -5398,7 +4370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5467,28 +4439,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -6136,7 +5108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6205,22 +5177,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -6674,6 +5646,1002 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2" t="n">
+        <v>80</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>80</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>40</v>
+      </c>
+      <c r="F4" t="n">
+        <v>60</v>
+      </c>
+      <c r="G4" t="n">
+        <v>40</v>
+      </c>
+      <c r="H4" t="n">
+        <v>60</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>80</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20</v>
+      </c>
+      <c r="F5" t="n">
+        <v>80</v>
+      </c>
+      <c r="G5" t="n">
+        <v>20</v>
+      </c>
+      <c r="H5" t="n">
+        <v>80</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>80</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" t="n">
+        <v>20</v>
+      </c>
+      <c r="F6" t="n">
+        <v>80</v>
+      </c>
+      <c r="G6" t="n">
+        <v>20</v>
+      </c>
+      <c r="H6" t="n">
+        <v>80</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>80</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>80</v>
+      </c>
+      <c r="D8" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>60</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>60</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>40</v>
+      </c>
+      <c r="D11" t="n">
+        <v>60</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D12" t="n">
+        <v>60</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>20</v>
+      </c>
+      <c r="D13" t="n">
+        <v>80</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>20</v>
+      </c>
+      <c r="D14" t="n">
+        <v>80</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>20</v>
+      </c>
+      <c r="D15" t="n">
+        <v>80</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>20</v>
+      </c>
+      <c r="D16" t="n">
+        <v>80</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2" t="n">
+        <v>75</v>
+      </c>
+      <c r="G2" t="n">
+        <v>50</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I2" t="n">
+        <v>75</v>
+      </c>
+      <c r="J2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>75</v>
+      </c>
+      <c r="F3" t="n">
+        <v>25</v>
+      </c>
+      <c r="G3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H3" t="n">
+        <v>50</v>
+      </c>
+      <c r="I3" t="n">
+        <v>25</v>
+      </c>
+      <c r="J3" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" t="n">
+        <v>50</v>
+      </c>
+      <c r="G4" t="n">
+        <v>50</v>
+      </c>
+      <c r="H4" t="n">
+        <v>50</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" t="n">
+        <v>25</v>
+      </c>
+      <c r="H5" t="n">
+        <v>75</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25</v>
+      </c>
+      <c r="F6" t="n">
+        <v>75</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>50</v>
+      </c>
+      <c r="D7" t="n">
+        <v>50</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>50</v>
+      </c>
+      <c r="D8" t="n">
+        <v>50</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>50</v>
+      </c>
+      <c r="D9" t="n">
+        <v>50</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>50</v>
+      </c>
+      <c r="D10" t="n">
+        <v>50</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>50</v>
+      </c>
+      <c r="D11" t="n">
+        <v>50</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D12" t="n">
+        <v>50</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>25</v>
+      </c>
+      <c r="D13" t="n">
+        <v>75</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>100</v>
       </c>
     </row>
@@ -6751,28 +6719,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -7421,552 +7389,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>80</v>
-      </c>
-      <c r="F3" t="n">
-        <v>20</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>40</v>
-      </c>
-      <c r="F4" t="n">
-        <v>60</v>
-      </c>
-      <c r="G4" t="n">
-        <v>40</v>
-      </c>
-      <c r="H4" t="n">
-        <v>60</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>80</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20</v>
-      </c>
-      <c r="E5" t="n">
-        <v>20</v>
-      </c>
-      <c r="F5" t="n">
-        <v>80</v>
-      </c>
-      <c r="G5" t="n">
-        <v>20</v>
-      </c>
-      <c r="H5" t="n">
-        <v>80</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>80</v>
-      </c>
-      <c r="D6" t="n">
-        <v>20</v>
-      </c>
-      <c r="E6" t="n">
-        <v>20</v>
-      </c>
-      <c r="F6" t="n">
-        <v>80</v>
-      </c>
-      <c r="G6" t="n">
-        <v>20</v>
-      </c>
-      <c r="H6" t="n">
-        <v>80</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>80</v>
-      </c>
-      <c r="D7" t="n">
-        <v>20</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>80</v>
-      </c>
-      <c r="D8" t="n">
-        <v>20</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>40</v>
-      </c>
-      <c r="D9" t="n">
-        <v>60</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>40</v>
-      </c>
-      <c r="D10" t="n">
-        <v>60</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>40</v>
-      </c>
-      <c r="D11" t="n">
-        <v>60</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>40</v>
-      </c>
-      <c r="D12" t="n">
-        <v>60</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>20</v>
-      </c>
-      <c r="D13" t="n">
-        <v>80</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>20</v>
-      </c>
-      <c r="D14" t="n">
-        <v>80</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>20</v>
-      </c>
-      <c r="D15" t="n">
-        <v>80</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>20</v>
-      </c>
-      <c r="D16" t="n">
-        <v>80</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8035,28 +7457,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -8408,6 +7830,424 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2" t="n">
+        <v>80</v>
+      </c>
+      <c r="G2" t="n">
+        <v>60</v>
+      </c>
+      <c r="H2" t="n">
+        <v>40</v>
+      </c>
+      <c r="I2" t="n">
+        <v>60</v>
+      </c>
+      <c r="J2" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>80</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" t="n">
+        <v>40</v>
+      </c>
+      <c r="H3" t="n">
+        <v>60</v>
+      </c>
+      <c r="I3" t="n">
+        <v>40</v>
+      </c>
+      <c r="J3" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20</v>
+      </c>
+      <c r="F4" t="n">
+        <v>80</v>
+      </c>
+      <c r="G4" t="n">
+        <v>40</v>
+      </c>
+      <c r="H4" t="n">
+        <v>60</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20</v>
+      </c>
+      <c r="F5" t="n">
+        <v>80</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>60</v>
+      </c>
+      <c r="D7" t="n">
+        <v>40</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>60</v>
+      </c>
+      <c r="D8" t="n">
+        <v>40</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>60</v>
+      </c>
+      <c r="D9" t="n">
+        <v>40</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>60</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" t="n">
+        <v>80</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20</v>
+      </c>
+      <c r="D12" t="n">
+        <v>80</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>100</v>
       </c>
     </row>
@@ -8417,6 +8257,424 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2" t="n">
+        <v>80</v>
+      </c>
+      <c r="G2" t="n">
+        <v>60</v>
+      </c>
+      <c r="H2" t="n">
+        <v>40</v>
+      </c>
+      <c r="I2" t="n">
+        <v>60</v>
+      </c>
+      <c r="J2" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>80</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" t="n">
+        <v>40</v>
+      </c>
+      <c r="H3" t="n">
+        <v>60</v>
+      </c>
+      <c r="I3" t="n">
+        <v>40</v>
+      </c>
+      <c r="J3" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20</v>
+      </c>
+      <c r="F4" t="n">
+        <v>80</v>
+      </c>
+      <c r="G4" t="n">
+        <v>40</v>
+      </c>
+      <c r="H4" t="n">
+        <v>60</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20</v>
+      </c>
+      <c r="F5" t="n">
+        <v>80</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>60</v>
+      </c>
+      <c r="D7" t="n">
+        <v>40</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>60</v>
+      </c>
+      <c r="D8" t="n">
+        <v>40</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>60</v>
+      </c>
+      <c r="D9" t="n">
+        <v>40</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>60</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" t="n">
+        <v>80</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20</v>
+      </c>
+      <c r="D12" t="n">
+        <v>80</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8485,28 +8743,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -8549,10 +8807,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
         <v>50</v>
@@ -8561,10 +8819,10 @@
         <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H4" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -8581,10 +8839,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
         <v>50</v>
@@ -8613,10 +8871,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
         <v>25</v>
@@ -8858,424 +9116,6 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>80</v>
-      </c>
-      <c r="F3" t="n">
-        <v>20</v>
-      </c>
-      <c r="G3" t="n">
-        <v>40</v>
-      </c>
-      <c r="H3" t="n">
-        <v>60</v>
-      </c>
-      <c r="I3" t="n">
-        <v>40</v>
-      </c>
-      <c r="J3" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>20</v>
-      </c>
-      <c r="F4" t="n">
-        <v>80</v>
-      </c>
-      <c r="G4" t="n">
-        <v>40</v>
-      </c>
-      <c r="H4" t="n">
-        <v>60</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>20</v>
-      </c>
-      <c r="F5" t="n">
-        <v>80</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>60</v>
-      </c>
-      <c r="D7" t="n">
-        <v>40</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>60</v>
-      </c>
-      <c r="D8" t="n">
-        <v>40</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>60</v>
-      </c>
-      <c r="D9" t="n">
-        <v>40</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>40</v>
-      </c>
-      <c r="D10" t="n">
-        <v>60</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>20</v>
-      </c>
-      <c r="D11" t="n">
-        <v>80</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>20</v>
-      </c>
-      <c r="D12" t="n">
-        <v>80</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
         <v>100</v>
       </c>
     </row>
@@ -9290,7 +9130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9353,28 +9193,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -9391,22 +9231,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I3" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J3" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -9417,22 +9257,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H4" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -9449,22 +9289,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -9481,16 +9321,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -9513,10 +9353,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -9545,10 +9385,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -9577,10 +9417,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -9609,10 +9449,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -9641,10 +9481,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -9673,10 +9513,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D12" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -9694,6 +9534,38 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>25</v>
+      </c>
+      <c r="D13" t="n">
+        <v>75</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>100</v>
       </c>
     </row>
@@ -9771,28 +9643,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -10253,28 +10125,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -10735,28 +10607,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -11185,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -11635,10 +11507,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -11647,10 +11519,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -12181,28 +12053,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -12759,10 +12631,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -12771,10 +12643,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -13305,22 +13177,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -13787,22 +13659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -14269,28 +14141,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -15007,28 +14879,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -15745,16 +15617,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -16067,16 +15939,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -16389,28 +16261,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -16967,28 +16839,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -17545,28 +17417,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -17899,28 +17771,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -18477,28 +18349,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -18831,28 +18703,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -19345,28 +19217,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -19859,22 +19731,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -20149,22 +20021,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -20439,16 +20311,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -20601,16 +20473,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -20763,28 +20635,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -21213,28 +21085,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -21663,28 +21535,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -21985,28 +21857,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -22723,28 +22595,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -23045,22 +22917,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -23591,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -24137,16 +24009,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -24155,10 +24027,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -24331,16 +24203,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -24349,10 +24221,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -24525,16 +24397,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -24543,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -25039,16 +24911,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -25057,10 +24929,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -25553,28 +25425,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -26291,28 +26163,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -27029,28 +26901,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -27447,28 +27319,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -28185,28 +28057,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -28603,22 +28475,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -28765,22 +28637,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -28927,28 +28799,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -29249,28 +29121,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -29571,28 +29443,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -29829,28 +29701,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -30087,10 +29959,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -30099,16 +29971,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -30665,10 +30537,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -30677,16 +30549,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -31243,22 +31115,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -31693,22 +31565,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -32207,22 +32079,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -32657,28 +32529,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -33107,28 +32979,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -33557,22 +33429,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -33975,22 +33847,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -34393,28 +34265,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -34747,28 +34619,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -35107,10 +34979,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -35237,10 +35109,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -35361,22 +35233,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -35587,22 +35459,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -36101,22 +35973,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -36333,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -36463,16 +36335,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -36599,10 +36471,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -36729,10 +36601,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -36847,22 +36719,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -37009,22 +36881,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -37171,22 +37043,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -37461,22 +37333,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -37751,10 +37623,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -37763,10 +37635,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -38041,22 +37913,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -38555,10 +38427,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -38567,10 +38439,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -38845,22 +38717,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -39135,22 +39007,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -39425,16 +39297,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -39443,10 +39315,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -39747,16 +39619,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -39765,10 +39637,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -40069,10 +39941,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -40231,10 +40103,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -40393,22 +40265,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -40587,22 +40459,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
